--- a/StructureDefinition-profile-EpisodeOfCare.xlsx
+++ b/StructureDefinition-profile-EpisodeOfCare.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="291">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6856435-06:00</t>
+    <t>2026-02-09T22:05:43.1069605-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,33 +423,60 @@
     <t>EpisodeOfCare.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EpisodeOfCare.reason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The list of medical reasons that are expected to be addressed during the episode of care.</t>
+  </si>
+  <si>
+    <t>Element `EpisodeOfCare.reason` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -457,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -541,6 +571,9 @@
     <t>EpisodeOfCare.statusHistory.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -654,20 +687,13 @@
     <t>EpisodeOfCare.diagnosis.condition.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
+    <t>EpisodeOfCare.diagnosis.condition.extension:condition</t>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis.condition|0.0.1-snapshot-3}
@@ -678,6 +704,9 @@
   </si>
   <si>
     <t>The medical condition that was addressed during the episode of care, expressed as a text, code or a reference to another resource.</t>
+  </si>
+  <si>
+    <t>Element `EpisodeOfCare.diagnosis.condition` is mapped to FHIR R4 element `EpisodeOfCare.diagnosis.condition`.</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis.condition.reference</t>
@@ -1204,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1213,7 +1242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.99609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2154,7 +2183,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2173,17 +2202,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2220,16 +2247,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2250,7 +2275,7 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -2261,11 +2286,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2278,26 +2305,24 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2345,7 +2370,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2354,7 +2379,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2363,7 +2388,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -2371,14 +2396,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2391,22 +2416,26 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2454,7 +2483,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2466,24 +2495,24 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2491,32 +2520,30 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -2541,13 +2568,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2565,13 +2592,13 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2602,30 +2629,32 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -2650,13 +2679,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -2677,10 +2706,10 @@
         <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -2689,21 +2718,21 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2714,7 +2743,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -2726,13 +2755,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2783,25 +2812,25 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -2809,21 +2838,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -2835,17 +2864,15 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -2894,19 +2921,19 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -2920,14 +2947,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2940,26 +2967,24 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3007,7 +3032,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3025,7 +3050,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3033,42 +3058,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3092,13 +3121,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3116,25 +3145,25 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3142,10 +3171,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3168,13 +3197,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3201,13 +3230,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3225,7 +3254,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3251,10 +3280,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3262,10 +3291,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3274,20 +3303,18 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3312,37 +3339,37 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3351,13 +3378,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -3388,15 +3415,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3421,13 +3450,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -3460,21 +3489,21 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3485,7 +3514,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3494,16 +3523,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3554,25 +3583,25 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -3580,21 +3609,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3606,17 +3635,15 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -3665,19 +3692,19 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -3691,14 +3718,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3711,26 +3738,24 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -3778,7 +3803,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3821,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -3804,42 +3829,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -3887,36 +3916,36 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3924,7 +3953,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -3936,16 +3965,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3996,10 +4025,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4008,24 +4037,24 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4033,11 +4062,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4048,13 +4077,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4093,37 +4122,37 @@
         <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4131,10 +4160,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4157,13 +4186,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4202,19 +4231,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4240,12 +4269,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4254,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4263,19 +4294,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4325,25 +4356,25 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4351,10 +4382,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4377,16 +4408,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4412,13 +4443,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -4445,7 +4476,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
@@ -4462,10 +4493,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4488,16 +4519,16 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4523,13 +4554,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -4547,7 +4578,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4565,7 +4596,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4573,10 +4604,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4599,16 +4630,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4658,7 +4689,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4676,7 +4707,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4684,10 +4715,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4710,15 +4741,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4743,13 +4776,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -4767,7 +4800,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4785,7 +4818,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -4793,10 +4826,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4819,13 +4852,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4852,13 +4885,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -4876,7 +4909,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4902,10 +4935,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4913,7 +4946,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -4928,13 +4961,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4985,10 +5018,10 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5000,21 +5033,21 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5022,7 +5055,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
@@ -5037,13 +5070,13 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5094,10 +5127,10 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>87</v>
@@ -5109,21 +5142,21 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5146,13 +5179,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5203,7 +5236,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5218,21 +5251,21 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5243,7 +5276,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5252,16 +5285,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5312,13 +5345,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -5327,21 +5360,21 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5352,7 +5385,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -5364,13 +5397,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5421,13 +5454,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -5436,7 +5469,7 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -5447,21 +5480,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -5473,13 +5506,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5530,13 +5563,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5578,7 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -5556,14 +5589,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5582,17 +5615,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -5641,7 +5672,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5656,12 +5687,123 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-EpisodeOfCare.xlsx
+++ b/StructureDefinition-profile-EpisodeOfCare.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1069605-06:00</t>
+    <t>2026-02-17T14:42:26.8024189-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,7 +463,7 @@
     <t>The list of medical reasons that are expected to be addressed during the episode of care.</t>
   </si>
   <si>
-    <t>Element `EpisodeOfCare.reason` is will have a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
+    <t>Element `EpisodeOfCare.reason` has a context of EpisodeOfCare based on following the parent source element upwards and mapping to `EpisodeOfCare`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -571,13 +571,23 @@
     <t>EpisodeOfCare.statusHistory.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.statusHistory.extension:statusHistory</t>
+  </si>
+  <si>
+    <t>statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.statusHistory|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EpisodeOfCare.statusHistory from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `EpisodeOfCare.statusHistory` has is mapped to FHIR R4 element `EpisodeOfCare.statusHistory`, but has no comparisons.</t>
   </si>
   <si>
     <t>EpisodeOfCare.statusHistory.modifierExtension</t>
@@ -659,6 +669,25 @@
     <t>EpisodeOfCare.diagnosis.extension</t>
   </si>
   <si>
+    <t>EpisodeOfCare.diagnosis.extension:diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EpisodeOfCare.diagnosis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The list of medical conditions that were addressed during the episode of care.</t>
+  </si>
+  <si>
+    <t>Element `EpisodeOfCare.diagnosis` has is mapped to FHIR R4 element `EpisodeOfCare.diagnosis`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>EpisodeOfCare.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -679,114 +708,6 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.id</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.extension:condition</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis.condition|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EpisodeOfCare.diagnosis.condition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The medical condition that was addressed during the episode of care, expressed as a text, code or a reference to another resource.</t>
-  </si>
-  <si>
-    <t>Element `EpisodeOfCare.diagnosis.condition` is mapped to FHIR R4 element `EpisodeOfCare.diagnosis.condition`.</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.diagnosis.condition.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis.role</t>
@@ -1233,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1242,9 +1163,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.99609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1252,7 +1173,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.97265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.03125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1266,11 +1187,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="47.12890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="31.41015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2954,7 +2875,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2976,14 +2897,12 @@
         <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3020,19 +2939,17 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3050,7 +2967,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3058,14 +2975,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3078,26 +2997,24 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3145,7 +3062,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3154,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>138</v>
@@ -3163,7 +3080,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3171,42 +3088,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3230,13 +3151,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3254,25 +3175,25 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3280,10 +3201,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3306,13 +3227,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3339,13 +3260,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3363,7 +3284,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -3389,10 +3310,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3400,10 +3321,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3412,20 +3333,18 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3450,13 +3369,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -3474,13 +3393,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3489,21 +3408,21 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3526,15 +3445,17 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3559,13 +3480,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -3583,7 +3504,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3598,13 +3519,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -3623,7 +3544,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3632,16 +3553,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3692,25 +3613,25 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3718,21 +3639,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -3744,17 +3665,15 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -3803,19 +3722,19 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -3829,14 +3748,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3849,26 +3768,22 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -3904,19 +3819,17 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3934,7 +3847,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -3942,21 +3855,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -3965,18 +3880,20 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4025,68 +3942,72 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4134,25 +4055,25 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4160,10 +4081,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4171,10 +4092,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4183,16 +4104,16 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4231,52 +4152,50 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4285,7 +4204,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4294,20 +4213,18 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4332,13 +4249,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4356,19 +4273,19 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -4382,10 +4299,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4408,17 +4325,15 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4467,7 +4382,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4476,7 +4391,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
@@ -4485,7 +4400,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4493,10 +4408,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4504,7 +4419,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
@@ -4519,17 +4434,15 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -4554,13 +4467,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -4578,10 +4491,10 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
@@ -4593,21 +4506,21 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4630,17 +4543,15 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -4689,7 +4600,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4704,10 +4615,10 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4741,7 +4652,7 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>243</v>
@@ -4749,9 +4660,7 @@
       <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4800,7 +4709,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4815,13 +4724,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -4840,7 +4749,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -4849,16 +4758,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4885,13 +4794,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -4915,7 +4824,7 @@
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -4924,7 +4833,7 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -4958,7 +4867,7 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>253</v>
@@ -5033,7 +4942,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5051,14 +4960,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5067,16 +4976,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5130,10 +5039,10 @@
         <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -5142,21 +5051,21 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5167,7 +5076,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5176,18 +5085,20 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5236,13 +5147,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -5251,559 +5162,12 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-EpisodeOfCare.xlsx
+++ b/StructureDefinition-profile-EpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8024189-06:00</t>
+    <t>2026-02-20T11:59:20.8022129-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EpisodeOfCare|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EpisodeOfCare</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason}
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>statusHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.statusHistory|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.statusHistory}
 </t>
   </si>
   <si>
@@ -675,7 +675,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis}
 </t>
   </si>
   <si>
@@ -1173,7 +1173,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-EpisodeOfCare.xlsx
+++ b/StructureDefinition-profile-EpisodeOfCare.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="291">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8022129-06:00</t>
+    <t>2026-02-21T13:36:54.2171834-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EpisodeOfCare</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EpisodeOfCare|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.reason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -571,23 +571,13 @@
     <t>EpisodeOfCare.statusHistory.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.statusHistory.extension:statusHistory</t>
-  </si>
-  <si>
-    <t>statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.statusHistory}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EpisodeOfCare.statusHistory from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `EpisodeOfCare.statusHistory` has is mapped to FHIR R4 element `EpisodeOfCare.statusHistory`, but has no comparisons.</t>
   </si>
   <si>
     <t>EpisodeOfCare.statusHistory.modifierExtension</t>
@@ -669,25 +659,6 @@
     <t>EpisodeOfCare.diagnosis.extension</t>
   </si>
   <si>
-    <t>EpisodeOfCare.diagnosis.extension:diagnosis</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for EpisodeOfCare.diagnosis from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The list of medical conditions that were addressed during the episode of care.</t>
-  </si>
-  <si>
-    <t>Element `EpisodeOfCare.diagnosis` has is mapped to FHIR R4 element `EpisodeOfCare.diagnosis`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>EpisodeOfCare.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -708,6 +679,114 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.extension:condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EpisodeOfCare.diagnosis.condition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EpisodeOfCare.diagnosis.condition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The medical condition that was addressed during the episode of care, expressed as a text, code or a reference to another resource.</t>
+  </si>
+  <si>
+    <t>Element `EpisodeOfCare.diagnosis.condition` is mapped to FHIR R4 element `EpisodeOfCare.diagnosis.condition` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis.role</t>
@@ -1154,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1163,9 +1242,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.99609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1173,7 +1252,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1187,11 +1266,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="38.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="47.12890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="31.41015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2875,7 +2954,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2897,12 +2976,14 @@
         <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -2939,17 +3020,19 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2967,7 +3050,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -2975,16 +3058,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2997,24 +3078,26 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3062,7 +3145,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3071,7 +3154,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>138</v>
@@ -3080,7 +3163,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3088,46 +3171,42 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3151,13 +3230,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3175,25 +3254,25 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3201,10 +3280,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3227,13 +3306,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3260,13 +3339,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3284,7 +3363,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -3310,10 +3389,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3321,10 +3400,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3333,18 +3412,20 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3369,13 +3450,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -3393,13 +3474,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3408,21 +3489,21 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3445,17 +3526,15 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3480,31 +3559,31 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3519,13 +3598,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -3544,7 +3623,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3553,16 +3632,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3613,25 +3692,25 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3639,21 +3718,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -3665,15 +3744,17 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -3722,19 +3803,19 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -3748,14 +3829,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3768,22 +3849,26 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -3819,17 +3904,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3847,7 +3934,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -3855,23 +3942,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -3880,20 +3965,18 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -3942,72 +4025,68 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4055,25 +4134,25 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4081,10 +4160,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4092,10 +4171,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4104,16 +4183,16 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4152,50 +4231,52 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4204,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4213,18 +4294,20 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4249,13 +4332,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4273,19 +4356,19 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -4299,10 +4382,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4325,15 +4408,17 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4382,7 +4467,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4391,7 +4476,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
@@ -4400,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4408,10 +4493,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4419,7 +4504,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
@@ -4434,15 +4519,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -4467,13 +4554,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -4491,10 +4578,10 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
@@ -4506,21 +4593,21 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4543,15 +4630,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -4600,7 +4689,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4615,10 +4704,10 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4652,7 +4741,7 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>243</v>
@@ -4660,7 +4749,9 @@
       <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4709,7 +4800,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4724,13 +4815,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -4749,7 +4840,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -4758,16 +4849,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4794,13 +4885,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -4824,7 +4915,7 @@
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -4833,7 +4924,7 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
@@ -4867,7 +4958,7 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>253</v>
@@ -4942,7 +5033,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -4960,14 +5051,14 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -4976,16 +5067,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5039,10 +5130,10 @@
         <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -5051,21 +5142,21 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5076,7 +5167,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5085,20 +5176,18 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>265</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5147,13 +5236,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -5162,12 +5251,559 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
